--- a/BackTest/2020-01-23 BackTest ETH.xlsx
+++ b/BackTest/2020-01-23 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4675,17 +4675,11 @@
         <v>-1693.470797945099</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4714,17 +4708,11 @@
         <v>-1676.200597945099</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4753,17 +4741,11 @@
         <v>-1690.555697945099</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>189900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4774,11 @@
         <v>-1636.043597945099</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4807,11 @@
         <v>-1742.8030979451</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4840,11 @@
         <v>-1740.6190979451</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4873,11 @@
         <v>-1741.2850979451</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4906,11 @@
         <v>-1741.2850979451</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4987,17 +4939,11 @@
         <v>-1754.2632979451</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5026,17 +4972,11 @@
         <v>-1754.2632979451</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5065,17 +5005,11 @@
         <v>-1753.2632979451</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5104,17 +5038,11 @@
         <v>-1671.1734979451</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>189900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5143,17 +5071,11 @@
         <v>-1548.8557979451</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5182,17 +5104,11 @@
         <v>-1576.7058979451</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>191700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5221,17 +5137,11 @@
         <v>-1572.3588979451</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5260,17 +5170,11 @@
         <v>-1572.4817979451</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>191700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5299,17 +5203,11 @@
         <v>-1572.4817979451</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5338,17 +5236,11 @@
         <v>-1570.2091979451</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5377,17 +5269,11 @@
         <v>-1568.1963979451</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5457,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5494,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5642,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5679,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5901,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5938,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5975,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6267,15 +6061,11 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6304,15 +6094,11 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6341,15 +6127,11 @@
         <v>-1264.6275979451</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6378,15 +6160,11 @@
         <v>-1259.6275979451</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6415,15 +6193,11 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6452,15 +6226,11 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6489,15 +6259,11 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6526,15 +6292,11 @@
         <v>-1283.4842979451</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6563,15 +6325,11 @@
         <v>-1287.9335979451</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6600,15 +6358,11 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6637,15 +6391,11 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6674,15 +6424,11 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6789,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6822,15 +6556,11 @@
         <v>-1129.8898979451</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6859,15 +6589,11 @@
         <v>-255.0525979450998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6896,15 +6622,11 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6933,15 +6655,11 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6970,15 +6688,11 @@
         <v>-266.9258979450998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7007,15 +6721,11 @@
         <v>-348.9018979450998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7044,15 +6754,11 @@
         <v>-329.9041979450998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7081,15 +6787,11 @@
         <v>-399.8416979450998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7118,15 +6820,11 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7155,15 +6853,11 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7192,15 +6886,11 @@
         <v>-380.7222979450998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7229,15 +6919,11 @@
         <v>-388.6969979450998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7266,15 +6952,11 @@
         <v>-440.0771979450998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7344,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7418,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7492,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7566,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7603,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7636,15 +7282,11 @@
         <v>-409.1393979450998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7673,15 +7315,11 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7710,15 +7348,11 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7747,15 +7381,11 @@
         <v>-403.3286096367708</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7784,15 +7414,11 @@
         <v>-402.3166096367707</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7821,15 +7447,11 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7858,15 +7480,11 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7895,15 +7513,11 @@
         <v>-414.3517096367707</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7932,15 +7546,11 @@
         <v>-414.0517096367707</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7969,15 +7579,11 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8006,15 +7612,11 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8043,15 +7645,11 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8080,15 +7678,11 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8117,15 +7711,11 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8154,15 +7744,11 @@
         <v>-418.4782096367707</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8191,15 +7777,11 @@
         <v>-420.2936096367707</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8232,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8269,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8306,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8343,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8376,15 +7942,11 @@
         <v>-424.8810096367707</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8413,15 +7975,11 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8450,15 +8008,11 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8487,15 +8041,11 @@
         <v>-430.2522096367708</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8524,15 +8074,11 @@
         <v>-428.6422096367708</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8565,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8676,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8713,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8750,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8787,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8861,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8898,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8972,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9009,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9046,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9083,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9120,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9157,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9194,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9231,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9268,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9305,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9342,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9379,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9416,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9453,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9490,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9527,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9601,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9638,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9712,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9749,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9786,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9860,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9897,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9934,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9971,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10119,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10156,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10193,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10267,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10304,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10341,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10378,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10415,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10452,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10489,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10526,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10563,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10600,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10637,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10674,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10748,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10785,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10822,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10859,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10896,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10933,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10970,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11007,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11081,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11118,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11155,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11192,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11229,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11266,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11303,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11377,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11451,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11488,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11525,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11562,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11599,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11636,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11673,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11710,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11747,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11784,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11858,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11895,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11932,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11969,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12006,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12043,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12080,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12117,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12154,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12191,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12228,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12339,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12376,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12413,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12450,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12487,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12524,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12561,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12598,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12635,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12672,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12709,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12746,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12783,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12820,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12857,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12894,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12931,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12968,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13005,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13042,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13079,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13116,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13153,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13190,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13227,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13264,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13301,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13338,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13375,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13412,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13449,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13523,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13560,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13597,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13671,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13708,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13745,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13782,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13819,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13856,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13893,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13930,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13967,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14004,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14041,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14078,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14115,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14152,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14189,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14226,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14263,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14300,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14337,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14374,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14411,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14448,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14485,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14522,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14559,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14596,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14633,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14670,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14744,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14781,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14818,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14855,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14892,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14929,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14966,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15003,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15040,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15077,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15114,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15151,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15188,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15225,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15262,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15299,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15336,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15373,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15410,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15447,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15484,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15521,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15595,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15632,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15669,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15706,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15743,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15780,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15817,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15854,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15891,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15965,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16002,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16039,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16076,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16113,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16150,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16187,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16224,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16261,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16298,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16335,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16372,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16409,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16446,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16483,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16520,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16557,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16594,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16631,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16668,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16705,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16742,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16779,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16853,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16890,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16927,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16964,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17001,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17038,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17075,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17112,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17186,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17223,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17260,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17297,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17334,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17371,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17408,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17445,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17482,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17519,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17556,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17593,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17630,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17667,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17704,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17741,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17778,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17815,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17852,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17889,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17926,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17963,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18000,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18037,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18074,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18111,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18148,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18185,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18222,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18259,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18296,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18333,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18407,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18444,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18481,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18518,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18555,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18592,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18629,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18666,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18703,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18740,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18777,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18814,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18851,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18888,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18925,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18962,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18999,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19036,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19073,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19110,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19147,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19184,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19221,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19258,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19295,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19332,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19365,15 +17743,11 @@
         <v>-1101.475495750343</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19402,15 +17776,11 @@
         <v>-1089.993852856286</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19439,15 +17809,11 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19476,15 +17842,11 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19517,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19554,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19628,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19665,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19702,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19739,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19776,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19813,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19850,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19887,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19924,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19961,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19998,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20035,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20072,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20109,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20146,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20183,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20220,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20257,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20294,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20331,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20368,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20405,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20442,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20479,11 +18737,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20516,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20553,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20590,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20627,11 +18869,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20664,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20701,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20738,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20775,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20849,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20886,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20923,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20960,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20997,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21034,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21071,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21108,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21145,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21182,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21219,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21256,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21293,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21330,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21367,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21404,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21441,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21478,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21515,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21552,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21589,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21626,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21663,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21700,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21737,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21774,11 +19892,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21811,11 +19925,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21848,11 +19958,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21885,11 +19991,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21922,11 +20024,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21959,11 +20057,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21996,11 +20090,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +20123,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22070,11 +20156,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22107,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22144,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22181,11 +20255,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22218,11 +20288,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22255,11 +20321,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22292,11 +20354,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22329,11 +20387,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22366,11 +20420,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22403,11 +20453,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22440,11 +20486,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22477,11 +20519,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22514,11 +20552,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22551,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22588,11 +20618,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22625,11 +20651,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22662,11 +20684,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22699,11 +20717,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22736,11 +20750,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22773,11 +20783,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22810,11 +20816,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22847,11 +20849,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22884,11 +20882,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22921,11 +20915,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22958,11 +20948,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22995,11 +20981,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23032,11 +21014,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23069,11 +21047,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23106,11 +21080,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23143,11 +21113,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23180,11 +21146,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23217,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +21212,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23291,11 +21245,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23328,11 +21278,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23365,11 +21311,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23402,11 +21344,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23439,11 +21377,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23476,11 +21410,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23513,11 +21443,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23550,11 +21476,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23587,11 +21509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23624,11 +21542,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23661,11 +21575,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23698,11 +21608,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23735,11 +21641,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23772,11 +21674,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23809,11 +21707,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23846,11 +21740,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23883,11 +21773,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23920,11 +21806,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23957,11 +21839,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23994,11 +21872,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24031,11 +21905,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24068,11 +21938,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24105,11 +21971,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24142,11 +22004,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24179,11 +22037,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24216,11 +22070,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24253,11 +22103,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24290,11 +22136,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24327,11 +22169,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24364,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24401,11 +22235,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24438,11 +22268,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24475,11 +22301,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24512,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24549,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24586,11 +22400,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24623,11 +22433,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24660,11 +22466,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24697,11 +22499,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24734,11 +22532,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24771,11 +22565,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24808,11 +22598,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24845,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24882,11 +22664,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24919,11 +22697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24956,11 +22730,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24993,11 +22763,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25030,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25067,11 +22829,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25104,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25141,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25178,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25215,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25252,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25289,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25326,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25363,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25400,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25437,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25474,11 +23192,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25511,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25548,11 +23258,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25585,11 +23291,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25622,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25659,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +23390,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25733,11 +23423,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25770,11 +23456,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25807,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25844,11 +23522,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25881,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25918,11 +23588,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25955,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25992,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26029,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26062,16 +23716,14 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
       <c r="M707" t="inlineStr"/>
     </row>
     <row r="708">
@@ -26097,7 +23749,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26130,7 +23782,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26163,7 +23815,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26196,7 +23848,7 @@
         <v>-25.48600725277876</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26229,7 +23881,7 @@
         <v>-605.8657072527787</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26262,7 +23914,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26295,7 +23947,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26328,7 +23980,7 @@
         <v>-445.9435072527787</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26361,7 +24013,7 @@
         <v>-391.8718072527787</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26394,7 +24046,7 @@
         <v>-560.8036484352456</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26427,7 +24079,7 @@
         <v>-637.1830514964701</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26460,7 +24112,7 @@
         <v>-803.8627301883454</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26493,7 +24145,7 @@
         <v>-1090.920930188345</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26526,7 +24178,7 @@
         <v>-1214.480830188345</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26559,7 +24211,7 @@
         <v>-1263.332730188346</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26592,7 +24244,7 @@
         <v>-1453.251266112175</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26625,7 +24277,7 @@
         <v>-1383.377866112175</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26658,7 +24310,7 @@
         <v>-1374.042466112175</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26691,7 +24343,7 @@
         <v>-1375.534966112175</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26724,7 +24376,7 @@
         <v>-1372.382821405083</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26757,7 +24409,7 @@
         <v>-1372.382821405083</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26790,7 +24442,7 @@
         <v>-1374.530921405083</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26823,7 +24475,7 @@
         <v>-1374.530921405083</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26856,7 +24508,7 @@
         <v>-1374.530921405083</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26889,7 +24541,7 @@
         <v>-1369.715883538004</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26922,7 +24574,7 @@
         <v>-1379.531383538004</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26955,7 +24607,7 @@
         <v>-1367.852211976953</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26988,7 +24640,7 @@
         <v>-1367.852211976953</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27021,7 +24673,7 @@
         <v>-1367.852211976953</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27054,7 +24706,7 @@
         <v>-1367.852211976953</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27087,7 +24739,7 @@
         <v>-1559.055211976953</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27120,7 +24772,7 @@
         <v>-1559.613211976953</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27153,7 +24805,7 @@
         <v>-1559.613211976953</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27186,7 +24838,7 @@
         <v>-1556.591311976953</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27483,7 +25135,7 @@
         <v>-1497.576648533988</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27516,7 +25168,7 @@
         <v>-1497.576648533988</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27549,7 +25201,7 @@
         <v>-1502.093248533988</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27582,7 +25234,7 @@
         <v>-1500.699318209078</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27615,7 +25267,7 @@
         <v>-1528.031918209078</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27648,7 +25300,7 @@
         <v>-1645.85481676429</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27681,7 +25333,7 @@
         <v>-1634.16281676429</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27714,7 +25366,7 @@
         <v>-1533.21191676429</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -36723,11 +34375,17 @@
         <v>-3104.671468587925</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>190300</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36760,7 +34418,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36797,7 +34459,7 @@
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1032" t="n">
@@ -37218,11 +34880,9 @@
         <v>-3105.041031081626</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -37257,11 +34917,9 @@
         <v>-3103.162031081626</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -37296,11 +34954,9 @@
         <v>-3103.577631081625</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -37335,11 +34991,9 @@
         <v>-3103.577631081625</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -37374,11 +35028,9 @@
         <v>-3153.446931081625</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -37413,11 +35065,9 @@
         <v>-3160.015331081625</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -37452,11 +35102,9 @@
         <v>-3169.781531081625</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -37491,11 +35139,9 @@
         <v>-3099.539131081625</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>189900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -37530,11 +35176,9 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -37569,11 +35213,9 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -37608,11 +35250,9 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -37647,11 +35287,9 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -37686,11 +35324,9 @@
         <v>-3125.422131081626</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -37725,11 +35361,9 @@
         <v>-3119.301031081626</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -37764,11 +35398,9 @@
         <v>-3122.911231081626</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>191000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -38262,6 +35894,6 @@
       <c r="M1070" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ETH.xlsx
+++ b/BackTest/2020-01-23 BackTest ETH.xlsx
@@ -6061,7 +6061,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1264.6275979451</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1259.6275979451</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1283.4842979451</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1287.9335979451</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1129.8898979451</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-255.0525979450998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-266.9258979450998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-348.9018979450998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-329.9041979450998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-399.8416979450998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-380.7222979450998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-388.6969979450998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-440.0771979450998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-409.1393979450998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-403.3286096367708</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-402.3166096367707</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-414.3517096367707</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-414.0517096367707</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-418.4782096367707</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-420.2936096367707</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-424.8810096367707</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-430.2522096367708</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-428.6422096367708</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1101.475495750343</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1089.993852856286</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-410.3148675386389</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-25.48600725277876</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-605.8657072527787</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-445.9435072527787</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-391.8718072527787</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-560.8036484352456</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-637.1830514964701</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-803.8627301883454</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-1090.920930188345</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-1214.480830188345</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -34375,17 +34375,11 @@
         <v>-3104.671468587925</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34418,11 +34412,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34451,17 +34441,11 @@
         <v>-3309.307268587925</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34490,17 +34474,11 @@
         <v>-3241.037368587925</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34529,17 +34507,11 @@
         <v>-3423.900231344369</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>189900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34568,17 +34540,11 @@
         <v>-3350.400231344369</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>189700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34607,17 +34573,11 @@
         <v>-3470.417031344369</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34654,7 +34614,7 @@
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1037" t="n">
@@ -35028,9 +34988,11 @@
         <v>-3153.446931081625</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>190300</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35065,9 +35027,11 @@
         <v>-3160.015331081625</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>190100</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35102,9 +35066,11 @@
         <v>-3169.781531081625</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>190000</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35139,9 +35105,11 @@
         <v>-3099.539131081625</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>189900</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35176,9 +35144,11 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>190000</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35213,9 +35183,11 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>190800</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35250,9 +35222,11 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>190800</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35287,9 +35261,11 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>190600</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35324,9 +35300,11 @@
         <v>-3125.422131081626</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>190600</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -35361,9 +35339,11 @@
         <v>-3119.301031081626</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>190800</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -35398,9 +35378,11 @@
         <v>-3122.911231081626</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>191000</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35435,9 +35417,11 @@
         <v>-3123.111531081626</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>190900</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35472,9 +35456,11 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>190800</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35509,9 +35495,11 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>190700</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -35546,9 +35534,11 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>190700</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -35583,9 +35573,11 @@
         <v>-3162.074631081626</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>190700</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -35620,9 +35612,11 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>190900</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35657,9 +35651,11 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>191000</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35694,9 +35690,11 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>191000</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35731,9 +35729,11 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>191000</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35768,9 +35768,11 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>191000</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35805,9 +35807,11 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>191100</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35842,9 +35846,11 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>191100</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35879,9 +35885,11 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>191100</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
